--- a/dokumentácio/user storyk.xlsx
+++ b/dokumentácio/user storyk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikelte-my.sharepoint.com/personal/w9rq9s_inf_elte_hu/Documents/Egyetem/Szakdolgozat/dokumentácio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1821fd6f6c7a6516/Dokumentumok/Szakdolgozat/dokumentácio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{13A9D4E6-978B-4A6C-9D0D-3E8ED2106D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50E96593-7BBB-4F30-9A14-9C0798A19D72}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{13A9D4E6-978B-4A6C-9D0D-3E8ED2106D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80FC4388-E85F-4603-B478-634FBE8F61F8}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E720F44A-8FDE-4FED-AF33-E2B6932F22A7}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -658,105 +658,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -764,6 +755,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1100,440 +1094,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A82F87B-D630-4026-A7F6-DDA7DBC4050D}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.53125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.06640625" style="16"/>
-    <col min="5" max="5" width="11.796875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="54.06640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.06640625" style="16"/>
-    <col min="9" max="9" width="15.53125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="13" style="16" customWidth="1"/>
-    <col min="11" max="11" width="42" style="16" customWidth="1"/>
-    <col min="12" max="16384" width="9.06640625" style="16"/>
+    <col min="3" max="3" width="55.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.06640625" style="11"/>
+    <col min="5" max="5" width="11.796875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="54.06640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.06640625" style="11"/>
+    <col min="9" max="9" width="15.53125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="13" style="11" customWidth="1"/>
+    <col min="11" max="11" width="42" style="11" customWidth="1"/>
+    <col min="12" max="16384" width="9.06640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="I1" s="17" t="s">
+      <c r="G1" s="30"/>
+      <c r="I1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="W1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" ht="19.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="X1" s="10"/>
+    </row>
+    <row r="2" spans="1:25" ht="19.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="W2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20" t="s">
+      <c r="X2" s="14"/>
+      <c r="Y2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:25" ht="19.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="F3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="22" t="s">
+      <c r="J3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="22"/>
-    </row>
-    <row r="4" spans="1:15" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="31" t="s">
+      <c r="W3" s="32"/>
+      <c r="X3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="17"/>
+    </row>
+    <row r="4" spans="1:25" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="33"/>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="35" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="24" t="s">
+      <c r="I4" s="33"/>
+      <c r="J4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="24"/>
-    </row>
-    <row r="5" spans="1:15" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="W4" s="33"/>
+      <c r="X4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="19"/>
+    </row>
+    <row r="5" spans="1:25" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="34"/>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="26" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="26" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="26"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="5" t="s">
+      <c r="W5" s="34"/>
+      <c r="X5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="21"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="34" t="s">
+      <c r="F6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="22" t="s">
+      <c r="J6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="31" t="s">
+    <row r="7" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="33"/>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="35" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="24" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="32" t="s">
+    <row r="8" spans="1:25" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="34"/>
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="26" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="26" t="s">
+      <c r="I8" s="34"/>
+      <c r="J8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="34" t="s">
+      <c r="F9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="22" t="s">
+      <c r="J9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="31" t="s">
+    <row r="10" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="33"/>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="35" t="s">
+      <c r="E10" s="33"/>
+      <c r="F10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="24" t="s">
+      <c r="I10" s="33"/>
+      <c r="J10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="31" t="s">
+    <row r="11" spans="1:25" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="33"/>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="26" t="s">
+      <c r="I11" s="34"/>
+      <c r="J11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="34" t="s">
+      <c r="F12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="22" t="s">
+      <c r="J12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="35" t="s">
+    <row r="13" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="33"/>
+      <c r="B13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="35" t="s">
+      <c r="E13" s="33"/>
+      <c r="F13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="24" t="s">
+      <c r="I13" s="33"/>
+      <c r="J13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="26" t="s">
+    <row r="14" spans="1:25" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="34"/>
+      <c r="B14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="26" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="26" t="s">
+      <c r="I14" s="34"/>
+      <c r="J14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13"/>
-      <c r="E15" s="5" t="s">
+    <row r="15" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="9"/>
+      <c r="E15" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="22" t="s">
+      <c r="J15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="24" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="24" t="s">
+      <c r="I16" s="33"/>
+      <c r="J16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1542,337 +1534,337 @@
         <v>1</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="26" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="26" t="s">
+      <c r="I17" s="34"/>
+      <c r="J17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="21" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="22" t="s">
+      <c r="F18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="31" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="32" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="26" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20" t="s">
+      <c r="J20" s="14"/>
+      <c r="K20" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="22" t="s">
+      <c r="F21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="34" t="s">
+      <c r="J21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="28" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="31" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="24" t="s">
+      <c r="E22" s="33"/>
+      <c r="F22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="24" t="s">
+      <c r="I22" s="36"/>
+      <c r="J22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="71.650000000000006" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="32" t="s">
+      <c r="A23" s="34"/>
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="26" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="26" t="s">
+      <c r="I23" s="37"/>
+      <c r="J23" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="22" t="s">
+      <c r="J24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="35" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="24" t="s">
+      <c r="I25" s="33"/>
+      <c r="J25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="9"/>
-      <c r="B26" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="26" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="26" t="s">
+      <c r="I26" s="34"/>
+      <c r="J26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="21" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="22.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="34" t="s">
+      <c r="B27" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="J27" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="22" t="s">
+      <c r="J27" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="35" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K28" s="24" t="s">
+      <c r="I28" s="33"/>
+      <c r="J28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="9"/>
-      <c r="B29" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="26" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="26" t="s">
+      <c r="I29" s="34"/>
+      <c r="J29" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="J30" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="22" t="s">
+      <c r="J30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" s="24" t="s">
+      <c r="C31" s="30"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="37" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="26" t="s">
+      <c r="I32" s="34"/>
+      <c r="J32" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="34" t="s">
+      <c r="B33" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="35" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="9"/>
-      <c r="B35" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="26" t="s">
+      <c r="A35" s="34"/>
+      <c r="B35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1880,6 +1872,20 @@
     <row r="40" spans="1:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="I3:I5"/>
@@ -1892,20 +1898,6 @@
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="E15:E17"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
